--- a/config_prac/colshp_prac.xlsx
+++ b/config_prac/colshp_prac.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="32" uniqueCount="8">
   <si>
     <t>Trial</t>
   </si>
@@ -121,7 +121,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="0">
         <v>1</v>
@@ -130,7 +130,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="0">
         <v>0</v>
@@ -167,10 +167,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F4" s="0">
         <v>6</v>
@@ -181,7 +181,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="0">
         <v>1</v>
@@ -201,7 +201,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" s="0">
         <v>2</v>
@@ -210,7 +210,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F6" s="0">
         <v>12</v>
@@ -221,7 +221,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" s="0">
         <v>2</v>
@@ -230,7 +230,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F7" s="0">
         <v>15</v>
@@ -241,13 +241,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>5</v>
@@ -261,7 +261,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" s="0">
         <v>1</v>
@@ -270,7 +270,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F9" s="0">
         <v>21</v>
@@ -281,7 +281,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" s="0">
         <v>2</v>
@@ -304,10 +304,10 @@
         <v>2</v>
       </c>
       <c r="C11" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>5</v>
